--- a/data/trans_dic/P18_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P18_1_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido deprimida en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>55,93%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>74,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>33,08%</t>
+          <t>64,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>39,78%</t>
+          <t>60,8%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>37,67%</t>
+          <t>63,18%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>73,4%</t>
+          <t>62,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>58,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,06%</t>
+          <t>26,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>56,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>64,49%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57,98%</t>
+          <t>50,1%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>54,27%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>43,47%</t>
+          <t>35,51%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>42,02%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>65,59%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>54,86%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>55,41%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>58,7%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>49,72%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>55,38%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>36,95; 52,34</t>
+          <t>48,42; 63,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,46; 33,5</t>
+          <t>66,98; 81,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,37; 41,82</t>
+          <t>55,64; 72,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,09; 48,5</t>
+          <t>50,92; 69,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,01; 46,75</t>
+          <t>53,63; 73,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,47; 80,02</t>
+          <t>52,19; 71,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>35,64; 51,84</t>
+          <t>48,7; 68,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,97; 61,87</t>
+          <t>20,48; 34,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>41,08; 57,51</t>
+          <t>47,15; 63,87</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>55,86; 72,76</t>
+          <t>37,93; 52,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>52,17; 63,52</t>
+          <t>42,7; 57,86</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,66; 40,59</t>
+          <t>45,7; 62,53</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>37,72; 48,91</t>
+          <t>27,33; 45,51</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>38,42; 50,36</t>
+          <t>43,02; 61,08</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>43,84; 57,0</t>
+          <t>37,0; 47,57</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>60,28; 71,04</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>48,64; 60,82</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>49,09; 61,38</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>52,06; 64,33</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>42,89; 56,51</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>49,19; 63,19</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>64,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>75,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>33,33%</t>
+          <t>66,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>67,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,32%</t>
+          <t>60,04%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>59,69%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,82%</t>
+          <t>61,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>36,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,28%</t>
+          <t>56,99%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>48,03%</t>
+          <t>59,41%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>48,83%</t>
+          <t>53,18%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>33,05%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>51,97%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>38,73%</t>
+          <t>55,8%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>51,17%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>66,61%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>63,24%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>60,77%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>58,65%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>55,94%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>58,85%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,35; 44,37</t>
+          <t>55,91; 72,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,16; 35,9</t>
+          <t>63,68; 83,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,34; 40,91</t>
+          <t>58,86; 73,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,0; 41,76</t>
+          <t>57,19; 75,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,89; 50,52</t>
+          <t>43,06; 71,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,6; 69,18</t>
+          <t>50,6; 69,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>36,09; 50,87</t>
+          <t>51,62; 71,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,59; 46,81</t>
+          <t>29,92; 43,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>40,04; 53,26</t>
+          <t>47,92; 63,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40,36; 55,48</t>
+          <t>52,73; 65,14</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,09; 54,26</t>
+          <t>46,24; 59,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>27,54; 39,34</t>
+          <t>48,58; 64,56</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>31,05; 41,49</t>
+          <t>44,33; 59,99</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>33,43; 44,51</t>
+          <t>47,85; 63,62</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>38,05; 50,43</t>
+          <t>45,33; 56,76</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>60,25; 72,0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>58,47; 68,15</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>54,25; 66,39</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>48,61; 65,51</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>49,48; 62,22</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>52,55; 66,19</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>59,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,43%</t>
+          <t>76,12%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>70,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,81%</t>
+          <t>73,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>65,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>62,7%</t>
+          <t>67,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,2%</t>
+          <t>37,31%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>62,66%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>46,9%</t>
+          <t>54,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>60,07%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>37,48%</t>
+          <t>53,1%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>34,88%</t>
+          <t>47,66%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>39,32%</t>
+          <t>48,43%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>69,26%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>62,25%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>64,93%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>62,46%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>60,68%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>56,1%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,1; 46,74</t>
+          <t>53,1; 66,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,14; 35,82</t>
+          <t>69,1; 82,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>23,9; 37,0</t>
+          <t>64,13; 76,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,05; 35,12</t>
+          <t>65,22; 79,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,83; 39,35</t>
+          <t>56,02; 72,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>57,31; 67,96</t>
+          <t>61,01; 74,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,23; 41,58</t>
+          <t>56,65; 70,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>40,05; 50,39</t>
+          <t>32,62; 42,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>37,63; 47,83</t>
+          <t>56,45; 68,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>41,02; 53,13</t>
+          <t>48,9; 59,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>47,0; 55,97</t>
+          <t>51,85; 62,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,27; 37,04</t>
+          <t>54,61; 65,46</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>33,85; 41,78</t>
+          <t>46,6; 59,17</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>30,95; 38,79</t>
+          <t>40,51; 53,67</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>34,92; 44,65</t>
+          <t>44,25; 52,91</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>64,8; 73,66</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>58,28; 66,55</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>60,77; 68,97</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>57,7; 67,28</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>55,9; 65,4</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>50,78; 60,86</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,18%</t>
+          <t>64,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,63%</t>
+          <t>72,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>64,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>64,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>67,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,06%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>58,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>38,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>49,87%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>58,66%</t>
+          <t>53,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>48,75%</t>
+          <t>49,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>52,77%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>46,7%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>51,92%</t>
+          <t>51,25%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>65,0%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>59,04%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>56,96%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>59,88%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>48,08%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>52,58%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,88; 42,63</t>
+          <t>58,04; 70,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,23; 33,34</t>
+          <t>65,77; 78,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,9; 41,53</t>
+          <t>58,16; 70,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,4; 42,21</t>
+          <t>56,94; 69,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>38,85; 53,45</t>
+          <t>60,9; 73,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,42; 66,06</t>
+          <t>46,34; 61,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>35,83; 46,84</t>
+          <t>51,28; 64,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,38; 51,04</t>
+          <t>34,0; 44,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,68; 55,05</t>
+          <t>52,12; 63,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,2; 65,98</t>
+          <t>47,82; 58,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>44,76; 52,56</t>
+          <t>45,03; 55,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,75; 38,32</t>
+          <t>47,32; 58,52</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>36,83; 44,98</t>
+          <t>34,8; 47,76</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>39,14; 47,1</t>
+          <t>40,37; 54,02</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>46,75; 57,0</t>
+          <t>47,09; 55,2</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>60,43; 68,96</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>54,9; 62,74</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>53,27; 60,63</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>55,71; 64,06</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>42,69; 53,46</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>47,81; 57,24</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>63,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>31,1%</t>
+          <t>68,43%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>69,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,99%</t>
+          <t>53,99%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>46,16%</t>
+          <t>56,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>54,87%</t>
+          <t>41,01%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>58,75%</t>
+          <t>54,32%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>59,41%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>47,68%</t>
+          <t>41,08%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>34,69%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>45,13%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>53,02%</t>
+          <t>52,32%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>65,19%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>57,23%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>54,51%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>59,43%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>46,99%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>46,88%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,89; 44,06</t>
+          <t>55,87; 69,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,46; 28,54</t>
+          <t>69,56; 81,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,29; 36,67</t>
+          <t>63,36; 74,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,35; 36,43</t>
+          <t>62,24; 73,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,98; 53,92</t>
+          <t>62,4; 75,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,82; 65,87</t>
+          <t>46,38; 61,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>39,24; 53,24</t>
+          <t>48,86; 63,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,41; 60,93</t>
+          <t>35,15; 47,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,58; 65,0</t>
+          <t>47,09; 61,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>51,9; 65,16</t>
+          <t>39,05; 51,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,75; 52,39</t>
+          <t>35,4; 47,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,51; 39,39</t>
+          <t>42,3; 57,27</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>38,73; 47,32</t>
+          <t>34,57; 47,14</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>40,84; 49,71</t>
+          <t>30,87; 43,68</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>47,93; 57,99</t>
+          <t>47,61; 56,72</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>60,49; 69,75</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>52,67; 61,74</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>50,1; 59,22</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>53,97; 64,34</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>41,83; 52,03</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>42,52; 52,4</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>64,74%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>71,65%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>70,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>70,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>75,38%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>55,13%</t>
+          <t>71,02%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>48,6%</t>
+          <t>67,37%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>58,6%</t>
+          <t>44,87%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>46,62%</t>
+          <t>41,27%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>40,16%</t>
+          <t>46,86%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>46,36%</t>
+          <t>48,4%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>37,91%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>53,38%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>58,99%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>54,19%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>53,83%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>59,42%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>57,99%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>50,18%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,67; 42,53</t>
+          <t>57,32; 71,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,08; 39,15</t>
+          <t>61,41; 79,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,61; 40,17</t>
+          <t>60,78; 77,71</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23,47; 38,27</t>
+          <t>62,06; 76,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>21,49; 37,05</t>
+          <t>67,5; 83,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,99; 60,89</t>
+          <t>62,46; 78,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>41,37; 55,93</t>
+          <t>58,81; 74,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>52,32; 66,01</t>
+          <t>38,66; 50,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>44,59; 63,12</t>
+          <t>42,46; 55,95</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42,3; 61,2</t>
+          <t>35,67; 48,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>42,35; 51,89</t>
+          <t>34,66; 49,38</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>34,29; 45,81</t>
+          <t>37,65; 56,11</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>41,24; 52,33</t>
+          <t>39,23; 57,92</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>38,08; 50,05</t>
+          <t>30,63; 46,12</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>36,02; 48,61</t>
+          <t>48,63; 57,98</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>53,77; 64,42</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>49,0; 59,25</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>48,59; 58,97</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>53,34; 65,6</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>51,19; 64,22</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>43,93; 55,86</t>
         </is>
       </c>
     </row>
@@ -1700,77 +2109,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>67,73%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,46%</t>
+          <t>67,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,56%</t>
+          <t>66,67%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>61,78%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>61,02%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>38,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>50,28%</t>
+          <t>56,29%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>54,27%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>50,05%</t>
+          <t>48,96%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>45,72%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>41,56%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>46,43%</t>
+          <t>49,95%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>65,14%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>58,61%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>58,02%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>59,89%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>53,57%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>53,32%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>34,86; 40,8</t>
+          <t>59,56; 65,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,47; 28,95</t>
+          <t>71,22; 77,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29,39; 34,95</t>
+          <t>64,84; 70,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>29,38; 35,38</t>
+          <t>64,08; 70,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,56; 42,16</t>
+          <t>62,56; 70,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>59,4; 64,11</t>
+          <t>58,22; 64,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>39,94; 45,5</t>
+          <t>57,7; 64,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>47,14; 52,23</t>
+          <t>35,97; 40,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>47,38; 52,77</t>
+          <t>53,41; 58,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>51,03; 57,56</t>
+          <t>47,45; 52,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>47,95; 51,84</t>
+          <t>46,33; 51,5</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>32,37; 36,57</t>
+          <t>50,34; 56,16</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>39,09; 43,06</t>
+          <t>42,37; 48,95</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>39,61; 43,62</t>
+          <t>42,76; 48,55</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>44,15; 48,75</t>
+          <t>47,91; 51,97</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>62,81; 67,09</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>56,72; 60,65</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>56,14; 60,1</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>57,56; 62,33</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>51,16; 56,05</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>50,88; 55,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>286896</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>373461</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>339440</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>307429</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>297664</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26231</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25709</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>123134</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>263306</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>230621</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>257520</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>259009</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>13280</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>20044</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>410030</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>636767</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>570061</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>564949</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>556673</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>39512</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>45753</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>248369; 324768</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>336291; 408249</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>291643; 381895</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>257508; 351915</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>252685; 344572</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21958; 30220</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21460; 30332</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>94809; 157387</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>221049; 299419</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>195295; 270015</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>219445; 297405</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>218120; 298441</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>10220; 17020</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>16585; 23549</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>361096; 464197</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>585248; 689657</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>505370; 632010</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>500546; 625837</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>493753; 610084</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>34083; 44911</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>40639; 52207</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>362697</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>431782</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>377139</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>400461</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>348148</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29771</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30240</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>191140</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>295824</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>301804</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>275149</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>288209</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24533</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>25672</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>553837</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>727607</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>678943</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>675610</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>636357</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>54304</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>55912</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>314986; 407213</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>365093; 476866</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>332853; 417961</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>339930; 447639</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>249709; 413042</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>25240; 34897</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25296; 35097</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>155236; 227372</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>248736; 331014</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>267868; 330895</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>239249; 309855</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>245376; 326073</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20928; 28320</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>22013; 29267</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>490596; 614336</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>658121; 786474</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>627730; 731637</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>603101; 738055</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>527403; 710793</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>48035; 60408</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>49928; 62883</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>275.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>426.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>338.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>404536</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>522466</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>480347</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>496994</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>439463</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40627</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38722</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>258975</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>446411</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>390592</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>408049</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>430943</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>28628</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>26142</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>663511</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>968877</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>870939</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>905043</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>870406</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>69255</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>64864</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>358861; 448430</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>474261; 563302</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>436534; 522783</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>443571; 540431</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>378731; 489231</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>36735; 44798</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34422; 43047</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>226459; 297859</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>402156; 486946</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>351303; 429777</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>370046; 442784</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>391800; 469634</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>25123; 31904</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22219; 29441</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>606212; 724960</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>906510; 1030361</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>815399; 931165</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>847038; 961335</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>804137; 937633</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>63792; 74639</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>58709; 70369</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>367.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>395.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>228.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>413846</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>469970</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>417681</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>408920</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>439951</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>31540</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>33094</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>273834</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>395079</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>361303</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>328954</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>349007</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>21588</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>24990</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>687681</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>865050</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>778985</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>737874</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>788958</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>53128</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>58084</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>370535; 450017</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>425673; 508636</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>375710; 454026</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>362828; 445047</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>399577; 482607</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>27003; 35890</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>29208; 36963</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>239078; 309463</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>356343; 435280</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>322016; 394560</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>296420; 363258</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>312965; 387036</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>18175; 24943</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>21603; 28905</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>631774; 740638</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>804233; 917847</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>724292; 827714</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>690092; 785471</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>733978; 844047</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>47169; 59078</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>52815; 63228</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>324665</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>378054</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>348665</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>337700</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>343142</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>24021</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>25492</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>206022</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>275546</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>227690</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>210176</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>256989</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>19799</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>17621</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>530688</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>653599</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>576356</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>547876</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>600131</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>43820</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>43113</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>286015; 355747</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>344528; 404324</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>319251; 376892</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>307147; 364209</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>307625; 372345</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>20635; 27338</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>22042; 28717</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>176606; 239968</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>238852; 310440</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>196473; 259955</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>181094; 243548</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>218645; 296024</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>16862; 22990</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>14462; 20465</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>482971; 575374</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>606447; 699250</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>530370; 621702</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>503516; 595170</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>545007; 649761</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>39012; 48522</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>39104; 48190</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>351826</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>383997</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>367306</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>372653</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>426966</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>33022</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>30625</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>325660</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>351768</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>287517</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>282622</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>337240</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>30563</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>24136</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>677487</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>735765</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>654823</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>655275</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>764206</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>63585</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>54760</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>311488; 389345</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>329136; 424737</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>316350; 404484</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>330384; 409702</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>382312; 471994</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>29041; 36631</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26735; 33960</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>280569; 368629</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>301960; 397919</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>245353; 332133</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>237356; 338203</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>270942; 403782</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>24771; 36573</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>19502; 29369</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>617203; 735864</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>670635; 803451</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>592070; 715967</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>591468; 717807</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>685924; 843596</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>56124; 70406</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>47938; 60961</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>843.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>868.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>922.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>922.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>564.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>557.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>618.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>766.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>834.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>821.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>696.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>1461.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1634.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1756.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1743.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>1404.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>1061.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1063.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2144466</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2559731</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2330578</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2324156</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>2295333</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>185213</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>183881</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1378766</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2027934</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1799528</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1762469</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1921398</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>138392</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>138604</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>3523232</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>4587665</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>4130106</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>4086626</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>4216732</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>323604</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>322485</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2052509; 2241766</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2450051; 2653146</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2231060; 2429624</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2206479; 2415721</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2153618; 2414078</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>175497; 195493</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>173904; 195205</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1297494; 1466476</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1924039; 2122654</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1710993; 1891789</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1667765; 1853737</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1811177; 2020357</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>128227; 148149</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>129748; 147314</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3379240; 3665446</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>4423365; 4724697</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>3996552; 4273874</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>3954138; 4232647</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>4052444; 4388153</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>309026; 338579</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>307710; 336226</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>